--- a/REGULAR/OJT/HADAP, JONALYN.xlsx
+++ b/REGULAR/OJT/HADAP, JONALYN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A23640B-0581-4C45-908E-44BDD405C60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="80">
   <si>
     <t>PERIOD</t>
   </si>
@@ -280,7 +279,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1140,7 +1139,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1183,7 +1182,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1247,7 +1246,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1307,7 +1306,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1373,7 +1372,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1436,7 +1435,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1534,7 +1533,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1593,7 +1592,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1658,7 +1657,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1701,7 +1700,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1776,7 +1775,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1962,7 +1961,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2028,7 +2027,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2086,7 +2085,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2152,7 +2151,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2208,7 +2207,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2283,7 +2282,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2326,7 +2325,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2392,7 +2391,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2448,7 +2447,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2546,7 +2545,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2609,7 +2608,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2675,25 +2674,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2705,13 +2704,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2720,14 +2719,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3031,7 +3030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3041,7 +3040,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3049,34 +3048,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K133"/>
+  <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A94" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A94" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="K101" sqref="K101"/>
+      <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3097,7 +3096,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3117,7 +3116,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3139,7 +3138,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3147,7 +3146,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3160,7 +3159,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3177,7 +3176,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3212,7 +3211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3221,7 +3220,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>67.75</v>
+        <v>69.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3231,12 +3230,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>84.75</v>
+        <v>86.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3258,7 +3257,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>42614</v>
       </c>
@@ -3278,7 +3277,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>42644</v>
       </c>
@@ -3298,7 +3297,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>42675</v>
       </c>
@@ -3318,7 +3317,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>42705</v>
       </c>
@@ -3338,7 +3337,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
         <v>49</v>
       </c>
@@ -3360,7 +3359,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>42736</v>
       </c>
@@ -3380,7 +3379,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>42767</v>
       </c>
@@ -3400,7 +3399,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>42795</v>
       </c>
@@ -3420,7 +3419,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>42826</v>
       </c>
@@ -3440,7 +3439,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>42856</v>
       </c>
@@ -3460,7 +3459,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>42887</v>
       </c>
@@ -3480,7 +3479,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>42917</v>
       </c>
@@ -3500,7 +3499,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>42948</v>
       </c>
@@ -3520,7 +3519,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>42979</v>
       </c>
@@ -3540,7 +3539,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43009</v>
       </c>
@@ -3566,7 +3565,7 @@
         <v>43026</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43040</v>
       </c>
@@ -3586,7 +3585,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43070</v>
       </c>
@@ -3610,7 +3609,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
         <v>48</v>
       </c>
@@ -3632,7 +3631,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43101</v>
       </c>
@@ -3652,7 +3651,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43132</v>
       </c>
@@ -3678,7 +3677,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43160</v>
       </c>
@@ -3698,7 +3697,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43191</v>
       </c>
@@ -3724,7 +3723,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43221</v>
       </c>
@@ -3748,7 +3747,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>55</v>
@@ -3768,7 +3767,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43252</v>
       </c>
@@ -3788,7 +3787,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43282</v>
       </c>
@@ -3808,7 +3807,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43313</v>
       </c>
@@ -3828,7 +3827,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43344</v>
       </c>
@@ -3848,7 +3847,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43374</v>
       </c>
@@ -3868,7 +3867,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43405</v>
       </c>
@@ -3888,7 +3887,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43435</v>
       </c>
@@ -3912,7 +3911,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
         <v>47</v>
       </c>
@@ -3934,7 +3933,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43466</v>
       </c>
@@ -3954,7 +3953,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43497</v>
       </c>
@@ -3980,7 +3979,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>43525</v>
       </c>
@@ -4002,7 +4001,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>43556</v>
       </c>
@@ -4022,7 +4021,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>43586</v>
       </c>
@@ -4048,7 +4047,7 @@
         <v>43607</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>54</v>
@@ -4068,7 +4067,7 @@
         <v>43592</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>43617</v>
       </c>
@@ -4088,7 +4087,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>43647</v>
       </c>
@@ -4114,7 +4113,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>43678</v>
       </c>
@@ -4134,7 +4133,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>43709</v>
       </c>
@@ -4160,7 +4159,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>43739</v>
       </c>
@@ -4184,7 +4183,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>43770</v>
       </c>
@@ -4204,7 +4203,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>43800</v>
       </c>
@@ -4228,7 +4227,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
         <v>46</v>
       </c>
@@ -4250,7 +4249,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>43831</v>
       </c>
@@ -4270,7 +4269,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>43862</v>
       </c>
@@ -4290,7 +4289,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>43891</v>
       </c>
@@ -4310,7 +4309,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>43922</v>
       </c>
@@ -4330,7 +4329,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>43952</v>
       </c>
@@ -4350,7 +4349,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>43983</v>
       </c>
@@ -4370,7 +4369,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44013</v>
       </c>
@@ -4390,7 +4389,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44044</v>
       </c>
@@ -4410,7 +4409,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44075</v>
       </c>
@@ -4430,7 +4429,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44105</v>
       </c>
@@ -4450,7 +4449,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44136</v>
       </c>
@@ -4476,7 +4475,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44166</v>
       </c>
@@ -4496,7 +4495,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
         <v>45</v>
       </c>
@@ -4518,7 +4517,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44197</v>
       </c>
@@ -4544,7 +4543,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44228</v>
       </c>
@@ -4564,7 +4563,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44256</v>
       </c>
@@ -4588,7 +4587,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44287</v>
       </c>
@@ -4608,7 +4607,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44317</v>
       </c>
@@ -4628,7 +4627,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44348</v>
       </c>
@@ -4654,7 +4653,7 @@
         <v>44362</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44378</v>
       </c>
@@ -4674,7 +4673,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44409</v>
       </c>
@@ -4694,7 +4693,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44440</v>
       </c>
@@ -4714,7 +4713,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44470</v>
       </c>
@@ -4738,7 +4737,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44501</v>
       </c>
@@ -4758,7 +4757,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>44531</v>
       </c>
@@ -4784,7 +4783,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>65</v>
@@ -4806,7 +4805,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="48" t="s">
         <v>44</v>
       </c>
@@ -4828,7 +4827,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>44562</v>
       </c>
@@ -4852,7 +4851,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>44593</v>
       </c>
@@ -4876,7 +4875,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>50</v>
@@ -4898,7 +4897,7 @@
         <v>44614</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>44621</v>
       </c>
@@ -4922,7 +4921,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>44652</v>
       </c>
@@ -4942,7 +4941,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>44682</v>
       </c>
@@ -4962,7 +4961,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>44713</v>
       </c>
@@ -4982,7 +4981,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>44743</v>
       </c>
@@ -5002,7 +5001,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>44774</v>
       </c>
@@ -5028,7 +5027,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>44805</v>
       </c>
@@ -5048,7 +5047,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>44835</v>
       </c>
@@ -5068,7 +5067,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>44866</v>
       </c>
@@ -5088,7 +5087,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>44896</v>
       </c>
@@ -5114,7 +5113,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="48" t="s">
         <v>75</v>
       </c>
@@ -5132,7 +5131,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>44927</v>
       </c>
@@ -5152,7 +5151,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>44958</v>
       </c>
@@ -5176,7 +5175,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>50</v>
@@ -5198,47 +5197,53 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>44986</v>
       </c>
       <c r="B101" s="20"/>
-      <c r="C101" s="13"/>
+      <c r="C101" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D101" s="39"/>
       <c r="E101" s="9"/>
       <c r="F101" s="20"/>
-      <c r="G101" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G101" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H101" s="39"/>
       <c r="I101" s="9"/>
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>45017</v>
       </c>
       <c r="B102" s="20"/>
-      <c r="C102" s="13"/>
+      <c r="C102" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D102" s="39"/>
       <c r="E102" s="9"/>
       <c r="F102" s="20"/>
-      <c r="G102" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G102" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H102" s="39"/>
       <c r="I102" s="9"/>
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>45047</v>
       </c>
-      <c r="B103" s="20"/>
+      <c r="B103" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
       <c r="E103" s="9"/>
@@ -5247,18 +5252,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H103" s="39"/>
+      <c r="H103" s="39">
+        <v>1</v>
+      </c>
       <c r="I103" s="9"/>
       <c r="J103" s="11"/>
-      <c r="K103" s="20"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B104" s="20"/>
+      <c r="K103" s="49">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="40"/>
+      <c r="B104" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C104" s="13"/>
-      <c r="D104" s="39"/>
+      <c r="D104" s="39">
+        <v>1</v>
+      </c>
       <c r="E104" s="9"/>
       <c r="F104" s="20"/>
       <c r="G104" s="13" t="str">
@@ -5268,11 +5279,13 @@
       <c r="H104" s="39"/>
       <c r="I104" s="9"/>
       <c r="J104" s="11"/>
-      <c r="K104" s="20"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K104" s="49">
+        <v>45069</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5288,9 +5301,9 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5306,9 +5319,9 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5324,9 +5337,9 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5342,9 +5355,9 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5360,9 +5373,9 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5378,9 +5391,9 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5396,9 +5409,9 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5414,9 +5427,9 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5432,9 +5445,9 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5450,9 +5463,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5468,9 +5481,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5486,9 +5499,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5504,8 +5517,10 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="40"/>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="40">
+        <v>45474</v>
+      </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
       <c r="D118" s="39"/>
@@ -5520,7 +5535,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5536,7 +5551,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5552,7 +5567,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5568,7 +5583,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5584,7 +5599,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5600,7 +5615,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5616,7 +5631,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5632,7 +5647,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5648,7 +5663,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5664,7 +5679,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5680,7 +5695,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5696,7 +5711,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5712,7 +5727,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5728,7 +5743,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5744,21 +5759,37 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="41"/>
-      <c r="B133" s="15"/>
-      <c r="C133" s="42"/>
-      <c r="D133" s="43"/>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="40"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="39"/>
       <c r="E133" s="9"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="42" t="str">
+      <c r="F133" s="20"/>
+      <c r="G133" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H133" s="43"/>
+      <c r="H133" s="39"/>
       <c r="I133" s="9"/>
-      <c r="J133" s="12"/>
-      <c r="K133" s="15"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="20"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="41"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="42"/>
+      <c r="D134" s="43"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="43"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5775,10 +5806,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5801,7 +5832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -5809,21 +5840,21 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -5836,7 +5867,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5865,7 +5896,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1.25</v>
       </c>
@@ -5889,17 +5920,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5920,7 +5951,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5947,7 +5978,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5973,7 +6004,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5999,7 +6030,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -6025,7 +6056,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -6051,7 +6082,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -6077,7 +6108,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -6103,7 +6134,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -6129,7 +6160,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -6149,7 +6180,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -6169,7 +6200,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6189,7 +6220,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6210,7 +6241,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6231,7 +6262,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6252,7 +6283,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6273,7 +6304,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6294,7 +6325,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6315,7 +6346,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6336,7 +6367,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6357,7 +6388,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6378,7 +6409,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6399,7 +6430,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6420,7 +6451,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6441,7 +6472,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6462,7 +6493,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6483,7 +6514,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6504,7 +6535,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6525,7 +6556,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6546,7 +6577,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6567,7 +6598,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6588,7 +6619,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6609,7 +6640,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6618,7 +6649,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6627,7 +6658,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6636,7 +6667,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6645,7 +6676,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6654,7 +6685,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6663,7 +6694,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6672,7 +6703,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6681,7 +6712,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6690,7 +6721,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6699,7 +6730,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6708,7 +6739,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6717,7 +6748,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6726,7 +6757,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6735,7 +6766,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6744,7 +6775,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6753,7 +6784,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6762,7 +6793,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6771,7 +6802,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6780,7 +6811,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6789,7 +6820,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6798,7 +6829,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6807,7 +6838,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6816,7 +6847,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6825,7 +6856,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6834,7 +6865,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6843,7 +6874,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6852,7 +6883,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6861,7 +6892,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6870,7 +6901,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/HADAP, JONALYN.xlsx
+++ b/REGULAR/OJT/HADAP, JONALYN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965F0BA0-4AC5-4F46-B61F-C65B72F2AE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="81">
   <si>
     <t>PERIOD</t>
   </si>
@@ -162,9 +163,6 @@
     <t>SL EARNED</t>
   </si>
   <si>
-    <t>HADAP, JONALYN</t>
-  </si>
-  <si>
     <t>2016</t>
   </si>
   <si>
@@ -274,12 +272,18 @@
   </si>
   <si>
     <t>DCWI</t>
+  </si>
+  <si>
+    <t>7/11,14/2023</t>
+  </si>
+  <si>
+    <t>HADAP, JONALYN LUNA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1139,7 +1143,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1182,7 +1186,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1246,7 +1250,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1306,7 +1310,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1372,7 +1376,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1435,7 +1439,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1533,7 +1537,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1592,7 +1596,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1657,7 +1661,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1700,7 +1704,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1775,7 +1779,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1961,7 +1965,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2027,7 +2031,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2085,7 +2089,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2151,7 +2155,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2207,7 +2211,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2282,7 +2286,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2325,7 +2329,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2391,7 +2395,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2447,7 +2451,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2545,7 +2549,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2608,7 +2612,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2657,7 +2661,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2674,25 +2678,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2704,13 +2708,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2719,14 +2723,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3030,7 +3034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3040,7 +3044,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3048,39 +3052,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A94" activePane="bottomLeft"/>
-      <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
+      <pane ySplit="3696" topLeftCell="A99" activePane="bottomLeft"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection pane="bottomLeft" activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
@@ -3096,12 +3100,12 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
@@ -3116,19 +3120,19 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
@@ -3138,7 +3142,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3146,7 +3150,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3159,7 +3163,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3176,7 +3180,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3211,7 +3215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3220,7 +3224,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>69.25</v>
+        <v>68.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3230,14 +3234,14 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>86.25</v>
+        <v>87.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -3257,7 +3261,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>42614</v>
       </c>
@@ -3277,7 +3281,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>42644</v>
       </c>
@@ -3297,7 +3301,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>42675</v>
       </c>
@@ -3317,7 +3321,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>42705</v>
       </c>
@@ -3337,9 +3341,9 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="13"/>
@@ -3359,7 +3363,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>42736</v>
       </c>
@@ -3379,7 +3383,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>42767</v>
       </c>
@@ -3399,7 +3403,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>42795</v>
       </c>
@@ -3419,7 +3423,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>42826</v>
       </c>
@@ -3439,7 +3443,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>42856</v>
       </c>
@@ -3459,7 +3463,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>42887</v>
       </c>
@@ -3479,7 +3483,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>42917</v>
       </c>
@@ -3499,7 +3503,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>42948</v>
       </c>
@@ -3519,7 +3523,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>42979</v>
       </c>
@@ -3539,12 +3543,12 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43009</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="13">
         <v>1.25</v>
@@ -3565,7 +3569,7 @@
         <v>43026</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43040</v>
       </c>
@@ -3585,12 +3589,12 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43070</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" s="13">
         <v>1.25</v>
@@ -3609,9 +3613,9 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -3631,7 +3635,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43101</v>
       </c>
@@ -3651,12 +3655,12 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43132</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" s="13">
         <v>1.25</v>
@@ -3674,10 +3678,10 @@
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
       <c r="K30" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43160</v>
       </c>
@@ -3697,12 +3701,12 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43191</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="13">
         <v>1.25</v>
@@ -3723,12 +3727,12 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43221</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" s="13">
         <v>1.25</v>
@@ -3744,13 +3748,13 @@
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
       <c r="K33" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="39"/>
@@ -3764,10 +3768,10 @@
       <c r="I34" s="9"/>
       <c r="J34" s="11"/>
       <c r="K34" s="20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43252</v>
       </c>
@@ -3787,7 +3791,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>43282</v>
       </c>
@@ -3807,7 +3811,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43313</v>
       </c>
@@ -3827,7 +3831,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43344</v>
       </c>
@@ -3847,7 +3851,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43374</v>
       </c>
@@ -3867,7 +3871,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43405</v>
       </c>
@@ -3887,12 +3891,12 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43435</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41" s="13">
         <v>1.25</v>
@@ -3911,9 +3915,9 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -3933,7 +3937,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43466</v>
       </c>
@@ -3953,12 +3957,12 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>43497</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C44" s="13">
         <v>1.25</v>
@@ -3976,15 +3980,15 @@
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
       <c r="K44" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>43525</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45" s="13">
         <v>1.25</v>
@@ -4001,7 +4005,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>43556</v>
       </c>
@@ -4021,12 +4025,12 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>43586</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" s="13">
         <v>1.25</v>
@@ -4047,10 +4051,10 @@
         <v>43607</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="39"/>
@@ -4067,7 +4071,7 @@
         <v>43592</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>43617</v>
       </c>
@@ -4087,12 +4091,12 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>43647</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C50" s="13">
         <v>1.25</v>
@@ -4113,7 +4117,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>43678</v>
       </c>
@@ -4133,12 +4137,12 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>43709</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C52" s="13">
         <v>1.25</v>
@@ -4156,15 +4160,15 @@
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
       <c r="K52" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>43739</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C53" s="13">
         <v>1.25</v>
@@ -4183,7 +4187,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>43770</v>
       </c>
@@ -4203,12 +4207,12 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>43800</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C55" s="13">
         <v>1.25</v>
@@ -4227,9 +4231,9 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -4249,7 +4253,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>43831</v>
       </c>
@@ -4269,7 +4273,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>43862</v>
       </c>
@@ -4289,7 +4293,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>43891</v>
       </c>
@@ -4309,7 +4313,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>43922</v>
       </c>
@@ -4329,7 +4333,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>43952</v>
       </c>
@@ -4349,7 +4353,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>43983</v>
       </c>
@@ -4369,7 +4373,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44013</v>
       </c>
@@ -4389,7 +4393,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44044</v>
       </c>
@@ -4409,7 +4413,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44075</v>
       </c>
@@ -4429,7 +4433,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44105</v>
       </c>
@@ -4449,12 +4453,12 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44136</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C67" s="13">
         <v>1.25</v>
@@ -4472,10 +4476,10 @@
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
       <c r="K67" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44166</v>
       </c>
@@ -4495,9 +4499,9 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4517,12 +4521,12 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44197</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C70" s="13">
         <v>1.25</v>
@@ -4543,7 +4547,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44228</v>
       </c>
@@ -4563,12 +4567,12 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44256</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C72" s="13">
         <v>1.25</v>
@@ -4584,10 +4588,10 @@
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
       <c r="K72" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44287</v>
       </c>
@@ -4607,7 +4611,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44317</v>
       </c>
@@ -4627,12 +4631,12 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44348</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C75" s="13">
         <v>1.25</v>
@@ -4653,7 +4657,7 @@
         <v>44362</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44378</v>
       </c>
@@ -4673,7 +4677,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44409</v>
       </c>
@@ -4693,7 +4697,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44440</v>
       </c>
@@ -4713,12 +4717,12 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>44470</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C79" s="13">
         <v>1.25</v>
@@ -4734,10 +4738,10 @@
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
       <c r="K79" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>44501</v>
       </c>
@@ -4757,12 +4761,12 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>44531</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C81" s="13">
         <v>1.25</v>
@@ -4780,13 +4784,13 @@
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
       <c r="K81" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="39">
@@ -4802,12 +4806,12 @@
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
       <c r="K82" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4827,12 +4831,12 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>44562</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C84" s="13">
         <v>1.25</v>
@@ -4848,15 +4852,15 @@
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
       <c r="K84" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>44593</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C85" s="13">
         <v>1.25</v>
@@ -4872,13 +4876,13 @@
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
       <c r="K85" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -4897,12 +4901,12 @@
         <v>44614</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>44621</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C87" s="13">
         <v>1.25</v>
@@ -4918,10 +4922,10 @@
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
       <c r="K87" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>44652</v>
       </c>
@@ -4941,7 +4945,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>44682</v>
       </c>
@@ -4961,7 +4965,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>44713</v>
       </c>
@@ -4981,7 +4985,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>44743</v>
       </c>
@@ -5001,12 +5005,12 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>44774</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C92" s="13">
         <v>1.25</v>
@@ -5024,10 +5028,10 @@
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
       <c r="K92" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>44805</v>
       </c>
@@ -5047,7 +5051,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>44835</v>
       </c>
@@ -5067,7 +5071,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>44866</v>
       </c>
@@ -5087,12 +5091,12 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>44896</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C96" s="13">
         <v>1.25</v>
@@ -5110,12 +5114,12 @@
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
       <c r="K96" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5131,7 +5135,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>44927</v>
       </c>
@@ -5151,12 +5155,12 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>44958</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C99" s="13">
         <v>1.25</v>
@@ -5175,10 +5179,10 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -5197,7 +5201,7 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>44986</v>
       </c>
@@ -5217,7 +5221,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>45017</v>
       </c>
@@ -5237,20 +5241,22 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>45047</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C103" s="13"/>
+        <v>49</v>
+      </c>
+      <c r="C103" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D103" s="39"/>
       <c r="E103" s="9"/>
       <c r="F103" s="20"/>
-      <c r="G103" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G103" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H103" s="39">
         <v>1</v>
@@ -5261,10 +5267,10 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C104" s="13"/>
       <c r="D104" s="39">
@@ -5283,13 +5289,17 @@
         <v>45069</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B105" s="20"/>
+        <v>45107</v>
+      </c>
+      <c r="B105" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C105" s="13"/>
-      <c r="D105" s="39"/>
+      <c r="D105" s="39">
+        <v>2</v>
+      </c>
       <c r="E105" s="9"/>
       <c r="F105" s="20"/>
       <c r="G105" s="13" t="str">
@@ -5299,11 +5309,13 @@
       <c r="H105" s="39"/>
       <c r="I105" s="9"/>
       <c r="J105" s="11"/>
-      <c r="K105" s="20"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K105" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5319,9 +5331,9 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <v>45139</v>
+        <v>45169</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5337,9 +5349,9 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <v>45170</v>
+        <v>45199</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5355,9 +5367,9 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5373,9 +5385,9 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <v>45231</v>
+        <v>45260</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5391,9 +5403,9 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
-        <v>45261</v>
+        <v>45291</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5409,9 +5421,9 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <v>45292</v>
+        <v>45322</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5427,9 +5439,9 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
-        <v>45323</v>
+        <v>45351</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5445,9 +5457,9 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <v>45352</v>
+        <v>45382</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5463,9 +5475,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
-        <v>45383</v>
+        <v>45412</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5481,9 +5493,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <v>45413</v>
+        <v>45443</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5499,9 +5511,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <v>45444</v>
+        <v>45473</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5517,9 +5529,9 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <v>45474</v>
+        <v>45504</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5535,7 +5547,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5551,7 +5563,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5567,7 +5579,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5583,7 +5595,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5599,7 +5611,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5615,7 +5627,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5631,7 +5643,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5647,7 +5659,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5663,7 +5675,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5679,7 +5691,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5695,7 +5707,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5711,7 +5723,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5727,7 +5739,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5743,7 +5755,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5759,7 +5771,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5775,7 +5787,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="41"/>
       <c r="B134" s="15"/>
       <c r="C134" s="42"/>
@@ -5806,10 +5818,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5832,7 +5844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -5840,21 +5852,21 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -5867,7 +5879,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5896,7 +5908,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>1.25</v>
       </c>
@@ -5920,17 +5932,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5951,7 +5963,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5978,7 +5990,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -6004,7 +6016,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -6030,7 +6042,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -6056,7 +6068,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -6082,7 +6094,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -6108,7 +6120,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -6134,7 +6146,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -6160,7 +6172,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -6180,7 +6192,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -6200,7 +6212,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6220,7 +6232,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6241,7 +6253,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6262,7 +6274,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6283,7 +6295,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6304,7 +6316,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6325,7 +6337,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6346,7 +6358,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6367,7 +6379,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6388,7 +6400,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6409,7 +6421,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6430,7 +6442,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6451,7 +6463,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6472,7 +6484,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6493,7 +6505,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6514,7 +6526,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6535,7 +6547,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6556,7 +6568,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6577,7 +6589,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6598,7 +6610,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6619,7 +6631,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6640,7 +6652,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6649,7 +6661,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6658,7 +6670,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6667,7 +6679,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6676,7 +6688,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6685,7 +6697,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6694,7 +6706,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6703,7 +6715,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6712,7 +6724,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6721,7 +6733,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6730,7 +6742,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6739,7 +6751,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6748,7 +6760,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6757,7 +6769,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6766,7 +6778,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6775,7 +6787,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6784,7 +6796,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6793,7 +6805,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6802,7 +6814,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6811,7 +6823,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6820,7 +6832,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6829,7 +6841,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6838,7 +6850,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6847,7 +6859,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6856,7 +6868,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6865,7 +6877,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6874,7 +6886,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6883,7 +6895,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6892,7 +6904,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6901,7 +6913,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/HADAP, JONALYN.xlsx
+++ b/REGULAR/OJT/HADAP, JONALYN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965F0BA0-4AC5-4F46-B61F-C65B72F2AE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="82">
   <si>
     <t>PERIOD</t>
   </si>
@@ -278,12 +277,15 @@
   </si>
   <si>
     <t>HADAP, JONALYN LUNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                              </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1143,7 +1145,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1186,7 +1188,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1250,7 +1252,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1310,7 +1312,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1376,7 +1378,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1439,7 +1441,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1537,7 +1539,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1596,7 +1598,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1661,7 +1663,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1704,7 +1706,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1779,7 +1781,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1965,7 +1967,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2031,7 +2033,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2089,7 +2091,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2155,7 +2157,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2211,7 +2213,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2286,7 +2288,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2329,7 +2331,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2395,7 +2397,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2451,7 +2453,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2549,7 +2551,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2612,7 +2614,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2661,7 +2663,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2678,25 +2680,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2708,13 +2710,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2723,14 +2725,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3034,7 +3036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3044,7 +3046,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3052,34 +3054,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A99" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A93" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="E104" sqref="E104"/>
+      <selection pane="bottomLeft" activeCell="K107" sqref="K107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3100,7 +3102,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3120,7 +3122,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3142,7 +3144,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3150,7 +3152,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3163,7 +3165,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3180,7 +3182,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3215,7 +3217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3224,7 +3226,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>68.5</v>
+        <v>71</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3234,12 +3236,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>87.5</v>
+        <v>90</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3261,7 +3263,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>42614</v>
       </c>
@@ -3281,7 +3283,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>42644</v>
       </c>
@@ -3301,7 +3303,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>42675</v>
       </c>
@@ -3321,7 +3323,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>42705</v>
       </c>
@@ -3341,7 +3343,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
         <v>48</v>
       </c>
@@ -3363,7 +3365,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>42736</v>
       </c>
@@ -3383,7 +3385,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>42767</v>
       </c>
@@ -3403,7 +3405,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>42795</v>
       </c>
@@ -3423,7 +3425,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>42826</v>
       </c>
@@ -3443,7 +3445,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>42856</v>
       </c>
@@ -3463,7 +3465,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>42887</v>
       </c>
@@ -3483,7 +3485,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>42917</v>
       </c>
@@ -3503,7 +3505,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>42948</v>
       </c>
@@ -3523,7 +3525,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>42979</v>
       </c>
@@ -3543,7 +3545,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43009</v>
       </c>
@@ -3569,7 +3571,7 @@
         <v>43026</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43040</v>
       </c>
@@ -3589,7 +3591,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43070</v>
       </c>
@@ -3613,7 +3615,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
         <v>47</v>
       </c>
@@ -3635,7 +3637,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43101</v>
       </c>
@@ -3655,7 +3657,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43132</v>
       </c>
@@ -3681,7 +3683,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43160</v>
       </c>
@@ -3701,7 +3703,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43191</v>
       </c>
@@ -3727,7 +3729,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43221</v>
       </c>
@@ -3751,7 +3753,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>54</v>
@@ -3771,7 +3773,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43252</v>
       </c>
@@ -3791,7 +3793,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43282</v>
       </c>
@@ -3811,7 +3813,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43313</v>
       </c>
@@ -3831,7 +3833,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43344</v>
       </c>
@@ -3851,7 +3853,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43374</v>
       </c>
@@ -3871,7 +3873,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43405</v>
       </c>
@@ -3891,7 +3893,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43435</v>
       </c>
@@ -3915,7 +3917,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
         <v>46</v>
       </c>
@@ -3937,7 +3939,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43466</v>
       </c>
@@ -3957,7 +3959,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43497</v>
       </c>
@@ -3983,7 +3985,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>43525</v>
       </c>
@@ -4005,7 +4007,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>43556</v>
       </c>
@@ -4025,7 +4027,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>43586</v>
       </c>
@@ -4051,7 +4053,7 @@
         <v>43607</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>53</v>
@@ -4071,7 +4073,7 @@
         <v>43592</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>43617</v>
       </c>
@@ -4091,7 +4093,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>43647</v>
       </c>
@@ -4117,7 +4119,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>43678</v>
       </c>
@@ -4137,7 +4139,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>43709</v>
       </c>
@@ -4163,7 +4165,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>43739</v>
       </c>
@@ -4187,7 +4189,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>43770</v>
       </c>
@@ -4207,7 +4209,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>43800</v>
       </c>
@@ -4231,7 +4233,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
         <v>45</v>
       </c>
@@ -4253,7 +4255,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>43831</v>
       </c>
@@ -4273,7 +4275,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>43862</v>
       </c>
@@ -4293,7 +4295,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>43891</v>
       </c>
@@ -4313,7 +4315,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>43922</v>
       </c>
@@ -4333,7 +4335,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>43952</v>
       </c>
@@ -4353,7 +4355,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>43983</v>
       </c>
@@ -4373,7 +4375,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44013</v>
       </c>
@@ -4393,7 +4395,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44044</v>
       </c>
@@ -4413,7 +4415,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44075</v>
       </c>
@@ -4433,7 +4435,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44105</v>
       </c>
@@ -4453,7 +4455,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44136</v>
       </c>
@@ -4479,7 +4481,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44166</v>
       </c>
@@ -4499,7 +4501,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
         <v>44</v>
       </c>
@@ -4521,7 +4523,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44197</v>
       </c>
@@ -4547,7 +4549,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44228</v>
       </c>
@@ -4567,7 +4569,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44256</v>
       </c>
@@ -4591,7 +4593,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44287</v>
       </c>
@@ -4611,7 +4613,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44317</v>
       </c>
@@ -4631,7 +4633,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44348</v>
       </c>
@@ -4657,7 +4659,7 @@
         <v>44362</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44378</v>
       </c>
@@ -4677,7 +4679,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44409</v>
       </c>
@@ -4697,7 +4699,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44440</v>
       </c>
@@ -4717,7 +4719,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44470</v>
       </c>
@@ -4741,7 +4743,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44501</v>
       </c>
@@ -4761,7 +4763,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>44531</v>
       </c>
@@ -4787,7 +4789,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>64</v>
@@ -4809,7 +4811,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="48" t="s">
         <v>43</v>
       </c>
@@ -4831,7 +4833,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>44562</v>
       </c>
@@ -4855,7 +4857,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>44593</v>
       </c>
@@ -4879,7 +4881,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>49</v>
@@ -4901,7 +4903,7 @@
         <v>44614</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>44621</v>
       </c>
@@ -4925,7 +4927,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>44652</v>
       </c>
@@ -4945,7 +4947,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>44682</v>
       </c>
@@ -4965,7 +4967,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>44713</v>
       </c>
@@ -4985,7 +4987,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>44743</v>
       </c>
@@ -5005,7 +5007,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>44774</v>
       </c>
@@ -5031,7 +5033,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>44805</v>
       </c>
@@ -5051,7 +5053,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>44835</v>
       </c>
@@ -5071,7 +5073,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>44866</v>
       </c>
@@ -5091,7 +5093,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>44896</v>
       </c>
@@ -5117,7 +5119,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="48" t="s">
         <v>74</v>
       </c>
@@ -5135,7 +5137,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>44927</v>
       </c>
@@ -5155,7 +5157,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>44958</v>
       </c>
@@ -5179,7 +5181,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>49</v>
@@ -5201,7 +5203,7 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>44986</v>
       </c>
@@ -5221,7 +5223,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>45017</v>
       </c>
@@ -5241,7 +5243,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>45047</v>
       </c>
@@ -5267,7 +5269,7 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>52</v>
@@ -5276,7 +5278,9 @@
       <c r="D104" s="39">
         <v>1</v>
       </c>
-      <c r="E104" s="9"/>
+      <c r="E104" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="F104" s="20"/>
       <c r="G104" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -5289,22 +5293,24 @@
         <v>45069</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>45107</v>
       </c>
       <c r="B105" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C105" s="13"/>
+      <c r="C105" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D105" s="39">
         <v>2</v>
       </c>
       <c r="E105" s="9"/>
       <c r="F105" s="20"/>
-      <c r="G105" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G105" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H105" s="39"/>
       <c r="I105" s="9"/>
@@ -5313,29 +5319,33 @@
         <v>79</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>45138</v>
       </c>
       <c r="B106" s="20"/>
-      <c r="C106" s="13"/>
+      <c r="C106" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D106" s="39"/>
       <c r="E106" s="9"/>
       <c r="F106" s="20"/>
-      <c r="G106" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G106" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H106" s="39"/>
       <c r="I106" s="9"/>
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>45169</v>
       </c>
-      <c r="B107" s="20"/>
+      <c r="B107" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
       <c r="E107" s="9"/>
@@ -5347,9 +5357,11 @@
       <c r="H107" s="39"/>
       <c r="I107" s="9"/>
       <c r="J107" s="11"/>
-      <c r="K107" s="20"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K107" s="49">
+        <v>45167</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>45199</v>
       </c>
@@ -5367,7 +5379,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>45230</v>
       </c>
@@ -5385,7 +5397,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>45260</v>
       </c>
@@ -5403,7 +5415,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>45291</v>
       </c>
@@ -5421,7 +5433,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>45322</v>
       </c>
@@ -5439,7 +5451,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>45351</v>
       </c>
@@ -5457,7 +5469,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>45382</v>
       </c>
@@ -5475,7 +5487,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>45412</v>
       </c>
@@ -5493,7 +5505,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>45443</v>
       </c>
@@ -5511,7 +5523,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>45473</v>
       </c>
@@ -5529,7 +5541,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>45504</v>
       </c>
@@ -5547,7 +5559,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5563,7 +5575,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5579,7 +5591,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5595,7 +5607,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5611,7 +5623,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5627,7 +5639,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5643,7 +5655,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5659,7 +5671,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5675,7 +5687,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5691,7 +5703,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5707,7 +5719,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5723,7 +5735,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5739,7 +5751,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5755,7 +5767,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5771,7 +5783,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5787,7 +5799,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="41"/>
       <c r="B134" s="15"/>
       <c r="C134" s="42"/>
@@ -5818,10 +5830,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5844,7 +5856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -5852,21 +5864,21 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -5879,7 +5891,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5908,7 +5920,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1.25</v>
       </c>
@@ -5932,17 +5944,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5963,7 +5975,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5990,7 +6002,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -6016,7 +6028,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -6042,7 +6054,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -6068,7 +6080,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -6094,7 +6106,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -6120,7 +6132,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -6146,7 +6158,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -6172,7 +6184,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -6192,7 +6204,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -6212,7 +6224,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6232,7 +6244,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6253,7 +6265,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6274,7 +6286,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6295,7 +6307,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6316,7 +6328,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6337,7 +6349,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6358,7 +6370,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6379,7 +6391,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6400,7 +6412,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6421,7 +6433,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6442,7 +6454,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6463,7 +6475,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6484,7 +6496,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6505,7 +6517,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6526,7 +6538,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6547,7 +6559,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6568,7 +6580,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6589,7 +6601,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6610,7 +6622,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6631,7 +6643,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6652,7 +6664,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6661,7 +6673,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6670,7 +6682,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6679,7 +6691,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6688,7 +6700,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6697,7 +6709,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6706,7 +6718,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6715,7 +6727,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6724,7 +6736,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6733,7 +6745,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6742,7 +6754,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6751,7 +6763,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6760,7 +6772,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6769,7 +6781,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6778,7 +6790,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6787,7 +6799,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6796,7 +6808,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6805,7 +6817,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6814,7 +6826,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6823,7 +6835,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6832,7 +6844,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6841,7 +6853,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6850,7 +6862,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6859,7 +6871,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6868,7 +6880,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6877,7 +6889,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6886,7 +6898,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6895,7 +6907,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6904,7 +6916,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6913,7 +6925,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/HADAP, JONALYN.xlsx
+++ b/REGULAR/OJT/HADAP, JONALYN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB1306C-F425-4246-8360-E7F06906E620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="85">
   <si>
     <t>PERIOD</t>
   </si>
@@ -280,12 +281,21 @@
   </si>
   <si>
     <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                              </t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>ML(105-0-0)</t>
+  </si>
+  <si>
+    <t>1/2 - 4/15/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1145,7 +1155,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1188,7 +1198,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1252,7 +1262,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1312,7 +1322,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1378,7 +1388,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1441,7 +1451,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1539,7 +1549,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1598,7 +1608,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1663,7 +1673,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1706,7 +1716,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1781,7 +1791,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1967,7 +1977,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2033,7 +2043,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2091,7 +2101,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2157,7 +2167,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2213,7 +2223,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2288,7 +2298,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2331,7 +2341,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2397,7 +2407,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2453,7 +2463,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2551,7 +2561,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2614,7 +2624,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2663,7 +2673,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2680,25 +2690,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2710,13 +2720,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2725,14 +2735,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3036,7 +3046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3046,7 +3056,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3054,34 +3064,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K134"/>
+  <dimension ref="A2:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A93" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A105" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="K109" sqref="K109"/>
+      <selection pane="bottomLeft" activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3102,7 +3112,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3122,7 +3132,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3144,7 +3154,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3152,7 +3162,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3165,7 +3175,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3182,7 +3192,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3217,7 +3227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3226,7 +3236,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>72.5</v>
+        <v>77.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3236,12 +3246,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>92.5</v>
+        <v>97.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3263,7 +3273,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>42614</v>
       </c>
@@ -3283,7 +3293,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>42644</v>
       </c>
@@ -3303,7 +3313,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>42675</v>
       </c>
@@ -3323,7 +3333,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>42705</v>
       </c>
@@ -3343,7 +3353,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="48" t="s">
         <v>48</v>
       </c>
@@ -3365,7 +3375,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>42736</v>
       </c>
@@ -3385,7 +3395,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>42767</v>
       </c>
@@ -3405,7 +3415,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>42795</v>
       </c>
@@ -3425,7 +3435,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>42826</v>
       </c>
@@ -3445,7 +3455,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>42856</v>
       </c>
@@ -3465,7 +3475,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>42887</v>
       </c>
@@ -3485,7 +3495,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>42917</v>
       </c>
@@ -3505,7 +3515,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>42948</v>
       </c>
@@ -3525,7 +3535,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>42979</v>
       </c>
@@ -3545,7 +3555,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43009</v>
       </c>
@@ -3571,7 +3581,7 @@
         <v>43026</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43040</v>
       </c>
@@ -3591,7 +3601,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43070</v>
       </c>
@@ -3615,7 +3625,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="48" t="s">
         <v>47</v>
       </c>
@@ -3637,7 +3647,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43101</v>
       </c>
@@ -3657,7 +3667,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43132</v>
       </c>
@@ -3683,7 +3693,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43160</v>
       </c>
@@ -3703,7 +3713,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43191</v>
       </c>
@@ -3729,7 +3739,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43221</v>
       </c>
@@ -3753,7 +3763,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>54</v>
@@ -3773,7 +3783,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43252</v>
       </c>
@@ -3793,7 +3803,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>43282</v>
       </c>
@@ -3813,7 +3823,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43313</v>
       </c>
@@ -3833,7 +3843,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43344</v>
       </c>
@@ -3853,7 +3863,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43374</v>
       </c>
@@ -3873,7 +3883,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43405</v>
       </c>
@@ -3893,7 +3903,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43435</v>
       </c>
@@ -3917,7 +3927,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="48" t="s">
         <v>46</v>
       </c>
@@ -3939,7 +3949,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43466</v>
       </c>
@@ -3959,7 +3969,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>43497</v>
       </c>
@@ -3985,7 +3995,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>43525</v>
       </c>
@@ -4007,7 +4017,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>43556</v>
       </c>
@@ -4027,7 +4037,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>43586</v>
       </c>
@@ -4053,7 +4063,7 @@
         <v>43607</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>53</v>
@@ -4073,7 +4083,7 @@
         <v>43592</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>43617</v>
       </c>
@@ -4093,7 +4103,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>43647</v>
       </c>
@@ -4119,7 +4129,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>43678</v>
       </c>
@@ -4139,7 +4149,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>43709</v>
       </c>
@@ -4165,7 +4175,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>43739</v>
       </c>
@@ -4189,7 +4199,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>43770</v>
       </c>
@@ -4209,7 +4219,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>43800</v>
       </c>
@@ -4233,7 +4243,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="48" t="s">
         <v>45</v>
       </c>
@@ -4255,7 +4265,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>43831</v>
       </c>
@@ -4275,7 +4285,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>43862</v>
       </c>
@@ -4295,7 +4305,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>43891</v>
       </c>
@@ -4315,7 +4325,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>43922</v>
       </c>
@@ -4335,7 +4345,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>43952</v>
       </c>
@@ -4355,7 +4365,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>43983</v>
       </c>
@@ -4375,7 +4385,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44013</v>
       </c>
@@ -4395,7 +4405,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44044</v>
       </c>
@@ -4415,7 +4425,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44075</v>
       </c>
@@ -4435,7 +4445,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44105</v>
       </c>
@@ -4455,7 +4465,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44136</v>
       </c>
@@ -4481,7 +4491,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44166</v>
       </c>
@@ -4501,7 +4511,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="48" t="s">
         <v>44</v>
       </c>
@@ -4523,7 +4533,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44197</v>
       </c>
@@ -4549,7 +4559,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44228</v>
       </c>
@@ -4569,7 +4579,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44256</v>
       </c>
@@ -4593,7 +4603,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44287</v>
       </c>
@@ -4613,7 +4623,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44317</v>
       </c>
@@ -4633,7 +4643,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44348</v>
       </c>
@@ -4659,7 +4669,7 @@
         <v>44362</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44378</v>
       </c>
@@ -4679,7 +4689,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44409</v>
       </c>
@@ -4699,7 +4709,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44440</v>
       </c>
@@ -4719,7 +4729,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>44470</v>
       </c>
@@ -4743,7 +4753,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>44501</v>
       </c>
@@ -4763,7 +4773,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>44531</v>
       </c>
@@ -4789,7 +4799,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>64</v>
@@ -4811,7 +4821,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="48" t="s">
         <v>43</v>
       </c>
@@ -4833,7 +4843,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>44562</v>
       </c>
@@ -4857,7 +4867,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>44593</v>
       </c>
@@ -4881,7 +4891,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>49</v>
@@ -4903,7 +4913,7 @@
         <v>44614</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>44621</v>
       </c>
@@ -4927,7 +4937,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>44652</v>
       </c>
@@ -4947,7 +4957,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>44682</v>
       </c>
@@ -4967,7 +4977,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>44713</v>
       </c>
@@ -4987,7 +4997,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>44743</v>
       </c>
@@ -5007,7 +5017,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>44774</v>
       </c>
@@ -5033,7 +5043,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>44805</v>
       </c>
@@ -5053,7 +5063,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>44835</v>
       </c>
@@ -5073,7 +5083,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>44866</v>
       </c>
@@ -5093,7 +5103,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>44896</v>
       </c>
@@ -5119,7 +5129,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="48" t="s">
         <v>74</v>
       </c>
@@ -5137,7 +5147,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>44927</v>
       </c>
@@ -5157,7 +5167,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>44958</v>
       </c>
@@ -5181,7 +5191,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>49</v>
@@ -5203,7 +5213,7 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>44986</v>
       </c>
@@ -5223,7 +5233,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>45017</v>
       </c>
@@ -5243,7 +5253,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>45047</v>
       </c>
@@ -5269,7 +5279,7 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>52</v>
@@ -5293,7 +5303,7 @@
         <v>45069</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>45107</v>
       </c>
@@ -5319,7 +5329,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>45138</v>
       </c>
@@ -5339,7 +5349,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>45169</v>
       </c>
@@ -5363,7 +5373,7 @@
         <v>45167</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>45199</v>
       </c>
@@ -5383,22 +5393,24 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>45230</v>
       </c>
       <c r="B109" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C109" s="13"/>
+      <c r="C109" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D109" s="39">
         <v>1</v>
       </c>
       <c r="E109" s="9"/>
       <c r="F109" s="20"/>
-      <c r="G109" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G109" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H109" s="39"/>
       <c r="I109" s="9"/>
@@ -5407,45 +5419,49 @@
         <v>45230</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>45260</v>
       </c>
       <c r="B110" s="20"/>
-      <c r="C110" s="13"/>
+      <c r="C110" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D110" s="39"/>
       <c r="E110" s="9"/>
       <c r="F110" s="20"/>
-      <c r="G110" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G110" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H110" s="39"/>
       <c r="I110" s="9"/>
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>45291</v>
       </c>
       <c r="B111" s="20"/>
-      <c r="C111" s="13"/>
+      <c r="C111" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D111" s="39"/>
       <c r="E111" s="9"/>
       <c r="F111" s="20"/>
-      <c r="G111" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G111" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H111" s="39"/>
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="40">
-        <v>45322</v>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="48" t="s">
+        <v>82</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5461,27 +5477,33 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B113" s="20"/>
-      <c r="C113" s="13"/>
+        <v>45322</v>
+      </c>
+      <c r="B113" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C113" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D113" s="39"/>
       <c r="E113" s="9"/>
       <c r="F113" s="20"/>
-      <c r="G113" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G113" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H113" s="39"/>
       <c r="I113" s="9"/>
       <c r="J113" s="11"/>
-      <c r="K113" s="20"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K113" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5497,9 +5519,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5515,9 +5537,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5533,9 +5555,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5551,9 +5573,9 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5569,8 +5591,10 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="40"/>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="40">
+        <v>45504</v>
+      </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
       <c r="D119" s="39"/>
@@ -5585,7 +5609,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5601,7 +5625,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5617,7 +5641,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5633,7 +5657,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5649,7 +5673,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5665,7 +5689,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5681,7 +5705,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5697,7 +5721,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5713,7 +5737,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5729,7 +5753,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5745,7 +5769,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5761,7 +5785,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5777,7 +5801,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5793,7 +5817,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5809,21 +5833,37 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="41"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="43"/>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="40"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="39"/>
       <c r="E134" s="9"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="42" t="str">
+      <c r="F134" s="20"/>
+      <c r="G134" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H134" s="43"/>
+      <c r="H134" s="39"/>
       <c r="I134" s="9"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="15"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="20"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="41"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="42"/>
+      <c r="D135" s="43"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="43"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5840,10 +5880,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5866,7 +5906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -5874,21 +5914,21 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -5901,7 +5941,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5930,7 +5970,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>1.25</v>
       </c>
@@ -5954,17 +5994,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5985,7 +6025,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -6012,7 +6052,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -6038,7 +6078,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -6064,7 +6104,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -6090,7 +6130,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -6116,7 +6156,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -6142,7 +6182,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -6168,7 +6208,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -6194,7 +6234,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -6214,7 +6254,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -6234,7 +6274,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6254,7 +6294,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6275,7 +6315,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6296,7 +6336,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6317,7 +6357,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6338,7 +6378,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6359,7 +6399,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6380,7 +6420,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6401,7 +6441,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6422,7 +6462,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6443,7 +6483,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6464,7 +6504,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6485,7 +6525,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6506,7 +6546,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6527,7 +6567,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6548,7 +6588,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6569,7 +6609,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6590,7 +6630,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6611,7 +6651,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6632,7 +6672,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6653,7 +6693,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6674,7 +6714,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6683,7 +6723,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6692,7 +6732,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6701,7 +6741,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6710,7 +6750,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6719,7 +6759,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6728,7 +6768,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6737,7 +6777,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6746,7 +6786,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6755,7 +6795,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6764,7 +6804,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6773,7 +6813,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6782,7 +6822,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6791,7 +6831,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6800,7 +6840,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6809,7 +6849,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6818,7 +6858,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6827,7 +6867,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6836,7 +6876,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6845,7 +6885,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6854,7 +6894,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6863,7 +6903,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6872,7 +6912,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6881,7 +6921,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6890,7 +6930,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6899,7 +6939,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6908,7 +6948,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6917,7 +6957,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6926,7 +6966,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6935,7 +6975,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
